--- a/dsl/src/test/data/data.xlsx
+++ b/dsl/src/test/data/data.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zsmyt\workspace\cristal-ise\dsl\src\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C21D91E-8FE8-461D-9EAC-BB3004A758B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1319DA1-D50B-48BB-804C-C000B0A2519D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="25170" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="754" yWindow="754" windowWidth="16457" windowHeight="8743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataSheet" sheetId="1" r:id="rId1"/>
-    <sheet name="otherSheet" sheetId="2" r:id="rId2"/>
+    <sheet name="TwoLineHeader" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>f1</t>
   </si>
@@ -50,7 +50,22 @@
     <t>4 4</t>
   </si>
   <si>
-    <t>O</t>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>h0</t>
+  </si>
+  <si>
+    <t>f0</t>
+  </si>
+  <si>
+    <t>class0</t>
+  </si>
+  <si>
+    <t>class1</t>
   </si>
 </sst>
 </file>
@@ -552,9 +567,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -912,19 +930,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.69140625" customWidth="1"/>
+    <col min="2" max="2" width="6.53515625" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -938,7 +956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -952,7 +970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -974,18 +992,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412C0CD6-D03F-4052-B7C4-D6E681DC6E66}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>